--- a/StreamRes/ExcelTable/Excel/SaveLoad.xlsx
+++ b/StreamRes/ExcelTable/Excel/SaveLoad.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Id</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>float</t>
-  </si>
-  <si>
-    <t>编号</t>
   </si>
   <si>
     <t>Int类型的键</t>
@@ -93,7 +90,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,7 +97,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,14 +104,12 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,7 +117,6 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,7 +124,6 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,7 +131,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,7 +138,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,14 +145,12 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,7 +158,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,7 +165,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,14 +172,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,35 +185,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -684,8 +662,155 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="50">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1044,88 +1169,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="29.7818181818182" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="30.1090909090909" customWidth="1"/>
-    <col min="5" max="5" width="14.3363636363636" customWidth="1"/>
+    <col min="2" max="2" width="29.7818181818182" customWidth="1" style="49"/>
+    <col min="3" max="3" width="15" customWidth="1" style="49"/>
+    <col min="4" max="4" width="30.1090909090909" customWidth="1" style="49"/>
+    <col min="5" max="5" width="14.3363636363636" customWidth="1" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="49" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="49" t="s">
         <v>12</v>
       </c>
+      <c r="B4" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="5">
+      <c r="A5" s="49" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="D5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
+      <c r="E5" s="49">
         <v>10</v>
       </c>
     </row>
@@ -1139,7 +1264,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1156,7 +1280,6 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/StreamRes/ExcelTable/Excel/SaveLoad.xlsx
+++ b/StreamRes/ExcelTable/Excel/SaveLoad.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Id</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>Cube0.Light.Inset</t>
@@ -1168,12 +1174,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
-  <cols>
-    <col min="2" max="2" width="29.7818181818182" customWidth="1" style="49"/>
-    <col min="3" max="3" width="15" customWidth="1" style="49"/>
-    <col min="4" max="4" width="30.1090909090909" customWidth="1" style="49"/>
-    <col min="5" max="5" width="14.3363636363636" customWidth="1" style="49"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="49" t="s">
@@ -1247,11 +1247,17 @@
       <c r="A5" s="49" t="s">
         <v>17</v>
       </c>
+      <c r="B5" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="49">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/SaveLoad.xlsx
+++ b/StreamRes/ExcelTable/Excel/SaveLoad.xlsx
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>int_key</t>
   </si>
   <si>
@@ -57,6 +60,9 @@
     <t>1</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Cube0_Transform_Position.x</t>
   </si>
   <si>
@@ -70,9 +76,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>0</t>
@@ -1167,7 +1170,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -1191,22 +1194,28 @@
       <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="49" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="49" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="49" t="s">
         <v>7</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1214,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3" s="49" t="s">
         <v>9</v>
@@ -1224,40 +1233,49 @@
       </c>
       <c r="E3" s="49" t="s">
         <v>11</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" s="49" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
